--- a/STATISTIK_COVID19_KEC_TAMALANREA.xlsx
+++ b/STATISTIK_COVID19_KEC_TAMALANREA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arizki\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arizki\Documents\kkn104_tamalanrea8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C079F2E4-9BD1-44A0-BD57-455C95787E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB2E42B-657C-4EE7-9750-26E27AC8DA65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="3870" windowWidth="10800" windowHeight="11880" xr2:uid="{53F180DF-9CC9-4172-89BE-DAC8F467C9A9}"/>
+    <workbookView xWindow="14685" yWindow="1470" windowWidth="10800" windowHeight="11880" xr2:uid="{53F180DF-9CC9-4172-89BE-DAC8F467C9A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,37 +506,69 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="3">
+        <v>44021</v>
+      </c>
+      <c r="C5" s="1">
+        <v>195</v>
+      </c>
+      <c r="D5" s="1">
+        <v>79</v>
+      </c>
+      <c r="E5" s="1">
+        <v>303</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="3">
+        <v>44022</v>
+      </c>
+      <c r="C6" s="1">
+        <v>198</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1">
+        <v>332</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="3">
+        <v>44023</v>
+      </c>
+      <c r="C7" s="1">
+        <v>198</v>
+      </c>
+      <c r="D7" s="1">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1">
+        <v>351</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="3">
+        <v>44024</v>
+      </c>
+      <c r="C8" s="1">
+        <v>198</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1">
+        <v>352</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
